--- a/data/census/Reapportionment for 2020 Census.xlsx
+++ b/data/census/Reapportionment for 2020 Census.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/census/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194D7D24-2D36-4C40-BF88-32F635AD4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF63A8-992A-5143-86B8-6AC33BC4F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="26860" windowHeight="16440" xr2:uid="{0BF0B264-D452-364C-BC5C-BF85D2BE8FE2}"/>
+    <workbookView xWindow="15280" yWindow="7720" windowWidth="26860" windowHeight="16440" xr2:uid="{0BF0B264-D452-364C-BC5C-BF85D2BE8FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$51</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -351,8 +354,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -380,8 +391,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,24 +711,27 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C2:C51"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1271,6 +1286,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C51" xr:uid="{321CD76A-2E5F-EC4F-8596-1F156163987F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>